--- a/proj_asic/docs/weekly_time_schedule.xlsx
+++ b/proj_asic/docs/weekly_time_schedule.xlsx
@@ -466,10 +466,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +567,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -707,49 +707,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,46 +853,46 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,46 +993,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383281128"/>
-        <c:axId val="383280736"/>
+        <c:axId val="287618808"/>
+        <c:axId val="287619200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383281128"/>
+        <c:axId val="287618808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,12 +1167,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383280736"/>
+        <c:crossAx val="287619200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383280736"/>
+        <c:axId val="287619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383281128"/>
+        <c:crossAx val="287618808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1364,7 +1364,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1935,8 +1935,8 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2223,13 +2223,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="U286" sqref="U286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="17" width="3" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2334,14 +2341,14 @@
         <v>10</v>
       </c>
       <c r="P2" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R2" s="12">
         <f>SUM(B2:Q2)</f>
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2352,7 +2359,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
         <v>8</v>
@@ -2398,7 +2405,7 @@
       </c>
       <c r="R3" s="8">
         <f>SUM(B3:Q3)</f>
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2409,53 +2416,53 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R4" s="5">
         <f>SUM(B4:Q4)</f>
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,50 +2476,50 @@
         <v>2</v>
       </c>
       <c r="D5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L5" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M5" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P5" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R5" s="8">
         <f>SUM(B5:Q5)</f>
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2526,54 +2533,55 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M6" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N6" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O6" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R6" s="5">
         <f>SUM(B6:Q6)</f>
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/proj_asic/docs/weekly_time_schedule.xlsx
+++ b/proj_asic/docs/weekly_time_schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>P Running Tot</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -127,30 +142,8 @@
     </border>
     <border>
       <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -171,7 +164,7 @@
       <left style="medium">
         <color rgb="FF666666"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color rgb="FF666666"/>
       </right>
       <top style="thick">
@@ -186,10 +179,153 @@
       <left style="medium">
         <color rgb="FF666666"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color rgb="FF666666"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="double">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="double">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF666666"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF666666"/>
       </bottom>
@@ -199,42 +335,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -288,15 +460,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Senior Project Hours by Week</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Team Time versus Week Number </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -333,17 +504,103 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Julie</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -366,678 +623,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$Q$1</c:f>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Zach</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$Q$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Dhruvit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$Q$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Kevin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Whitley</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$Q$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$Q$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1047,30 +660,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287618808"/>
-        <c:axId val="287619200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="287618808"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="419804840"/>
+        <c:axId val="419806408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="419804840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1091,10 +692,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Week Number</a:t>
                 </a:r>
               </a:p>
@@ -1130,7 +728,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1139,8 +736,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1167,12 +764,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287619200"/>
+        <c:crossAx val="419806408"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="287619200"/>
+        <c:axId val="419806408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,11 +812,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Hours</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (Hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1257,14 +854,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1288,9 +879,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287618808"/>
+        <c:crossAx val="419804840"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1301,7 +892,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1364,7 +955,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1410,7 +1001,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1437,8 +1028,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1539,7 +1130,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1571,10 +1162,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1614,23 +1205,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1735,8 +1325,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1868,20 +1458,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1895,17 +1484,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1930,19 +1508,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2226,15 +1804,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="U286" sqref="U286"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="17" width="3" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2245,7 +1824,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1">
@@ -2263,31 +1842,31 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="I1" s="11">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="11">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="11">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="11">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="11">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="11">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="11">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="11">
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -2295,288 +1874,551 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
       </c>
       <c r="H2" s="3">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3">
-        <v>10</v>
-      </c>
-      <c r="P2" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>6</v>
-      </c>
-      <c r="R2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7">
+        <v>7</v>
+      </c>
+      <c r="N2" s="7">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7">
+        <v>7</v>
+      </c>
+      <c r="P2" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>7</v>
+      </c>
+      <c r="R2" s="6">
         <f>SUM(B2:Q2)</f>
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>64</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="I3" s="6">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10</v>
-      </c>
-      <c r="L3" s="6">
-        <v>8</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="N3" s="6">
-        <v>4</v>
-      </c>
-      <c r="O3" s="6">
-        <v>10</v>
-      </c>
-      <c r="P3" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>10</v>
-      </c>
-      <c r="R3" s="8">
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="20">
+        <v>7</v>
+      </c>
+      <c r="J3" s="15">
+        <v>7</v>
+      </c>
+      <c r="K3" s="15">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15">
+        <v>7</v>
+      </c>
+      <c r="P3" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5">
         <f>SUM(B3:Q3)</f>
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
         <v>8</v>
       </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
       <c r="H4" s="3">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3">
-        <v>10</v>
-      </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>8</v>
-      </c>
-      <c r="R4" s="5">
-        <f>SUM(B4:Q4)</f>
-        <v>125</v>
+        <v>7</v>
+      </c>
+      <c r="I4" s="21">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14">
+        <v>7</v>
+      </c>
+      <c r="K4" s="14">
+        <v>7</v>
+      </c>
+      <c r="L4" s="14">
+        <v>7</v>
+      </c>
+      <c r="M4" s="14">
+        <v>7</v>
+      </c>
+      <c r="N4" s="14">
+        <v>7</v>
+      </c>
+      <c r="O4" s="14">
+        <v>7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>7</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4:R6" si="0">SUM(B4:Q4)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6">
-        <v>9</v>
-      </c>
-      <c r="M5" s="6">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>8</v>
-      </c>
-      <c r="R5" s="8">
-        <f>SUM(B5:Q5)</f>
-        <v>137</v>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="20">
+        <v>7</v>
+      </c>
+      <c r="J5" s="15">
+        <v>7</v>
+      </c>
+      <c r="K5" s="15">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15">
+        <v>7</v>
+      </c>
+      <c r="N5" s="15">
+        <v>7</v>
+      </c>
+      <c r="O5" s="15">
+        <v>7</v>
+      </c>
+      <c r="P5" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8</v>
+      </c>
+      <c r="I6" s="22">
+        <v>7</v>
+      </c>
+      <c r="J6" s="17">
+        <v>7</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7</v>
+      </c>
+      <c r="L6" s="17">
+        <v>7</v>
+      </c>
+      <c r="M6" s="17">
+        <v>7</v>
+      </c>
+      <c r="N6" s="17">
+        <v>7</v>
+      </c>
+      <c r="O6" s="17">
+        <v>7</v>
+      </c>
+      <c r="P6" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>7</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18">
+        <f>SUM(B2:B6)</f>
+        <v>80</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" ref="C7:Q7" si="1">SUM(C2:C6)</f>
+        <v>27</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R7" s="24">
+        <f>SUM(R2:R6)</f>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <f>B9+C7</f>
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <f>C9+D7</f>
+        <v>142</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:Q9" si="2">D9+E7</f>
+        <v>173</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>517</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3">
-        <v>11</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3">
-        <v>8</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>7</v>
-      </c>
-      <c r="R6" s="5">
-        <f>SUM(B6:Q6)</f>
+      <c r="B11">
+        <f>B10</f>
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <f>B11+35</f>
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:Q11" si="3">C11+35</f>
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
         <v>140</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/proj_asic/docs/weekly_time_schedule.xlsx
+++ b/proj_asic/docs/weekly_time_schedule.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,7 +511,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Predicted</c:v>
+            <c:v>Plan</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -662,11 +662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419804840"/>
-        <c:axId val="419806408"/>
+        <c:axId val="344990240"/>
+        <c:axId val="344994552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419804840"/>
+        <c:axId val="344990240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419806408"/>
+        <c:crossAx val="344994552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419806408"/>
+        <c:axId val="344994552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419804840"/>
+        <c:crossAx val="344990240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>81642</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>46942</xdr:rowOff>
+      <xdr:rowOff>60549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>61232</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>88445</xdr:rowOff>
+      <xdr:rowOff>102052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
